--- a/reports/quadros_forum_2003-2022.xlsx
+++ b/reports/quadros_forum_2003-2022.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrc/develop/cipf-comtrade/reports/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92892C6-7E2A-C542-9F08-E40FE5350E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -64,8 +83,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +136,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -128,13 +150,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,7 +202,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -206,6 +236,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -240,9 +271,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,14 +447,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1540" ySplit="740" topLeftCell="B173" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -442,8 +487,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>2003</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -462,8 +507,8 @@
         <v>-2060143665</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -480,8 +525,8 @@
         <v>-3699035774</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -498,8 +543,8 @@
         <v>2595744</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -516,8 +561,8 @@
         <v>-406838510</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -525,8 +570,8 @@
         <v>12350232</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -543,8 +588,8 @@
         <v>18436521</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -561,8 +606,8 @@
         <v>211642721</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -579,8 +624,8 @@
         <v>169993</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -597,8 +642,8 @@
         <v>1066991</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>2004</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -617,8 +662,8 @@
         <v>-4523821241</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
@@ -635,8 +680,8 @@
         <v>-4998757110</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -644,8 +689,8 @@
         <v>2746211</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
@@ -662,8 +707,8 @@
         <v>-986525186</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -680,8 +725,8 @@
         <v>5965053</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -698,8 +743,8 @@
         <v>30868208</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
@@ -716,8 +761,8 @@
         <v>307362629</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
@@ -734,8 +779,8 @@
         <v>-1114761</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -752,8 +797,8 @@
         <v>1708456</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>2005</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -772,8 +817,8 @@
         <v>-6209034768</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
@@ -790,8 +835,8 @@
         <v>-5165314721</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
@@ -799,8 +844,8 @@
         <v>5187788</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
@@ -817,8 +862,8 @@
         <v>-1419032543</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
@@ -826,8 +871,8 @@
         <v>5793889</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -844,8 +889,8 @@
         <v>17950550</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
@@ -862,8 +907,8 @@
         <v>588118240</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
@@ -871,8 +916,8 @@
         <v>550025</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>14</v>
       </c>
@@ -889,8 +934,8 @@
         <v>1272109</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>2006</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -909,8 +954,8 @@
         <v>-10039109474</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
@@ -927,8 +972,8 @@
         <v>-5529389430</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,8 +990,8 @@
         <v>10093746</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
@@ -963,8 +1008,8 @@
         <v>-2496483676</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,8 +1026,8 @@
         <v>5676992</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
@@ -999,8 +1044,8 @@
         <v>48168135</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
         <v>12</v>
       </c>
@@ -1017,8 +1062,8 @@
         <v>1005855077</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1026,8 +1071,8 @@
         <v>1217928</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,8 +1089,8 @@
         <v>-5169855</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>2007</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1064,8 +1109,8 @@
         <v>-11654145952</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
@@ -1082,8 +1127,8 @@
         <v>-6943598580</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
         <v>8</v>
       </c>
@@ -1100,8 +1145,8 @@
         <v>16826438</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
@@ -1118,8 +1163,8 @@
         <v>-1604492544</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,8 +1181,8 @@
         <v>7135829</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>11</v>
       </c>
@@ -1154,8 +1199,8 @@
         <v>39304871</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
         <v>12</v>
       </c>
@@ -1172,8 +1217,8 @@
         <v>1450109864</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
         <v>13</v>
       </c>
@@ -1181,8 +1226,8 @@
         <v>1796699</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
         <v>14</v>
       </c>
@@ -1199,8 +1244,8 @@
         <v>9470273</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <v>2008</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1219,8 +1264,8 @@
         <v>-19440054073</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
@@ -1237,8 +1282,8 @@
         <v>-11055985339</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
         <v>8</v>
       </c>
@@ -1246,8 +1291,8 @@
         <v>14953954</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
         <v>9</v>
       </c>
@@ -1264,8 +1309,8 @@
         <v>-1990480978</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
         <v>10</v>
       </c>
@@ -1282,8 +1327,8 @@
         <v>4904436</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1"/>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
         <v>11</v>
       </c>
@@ -1300,8 +1345,8 @@
         <v>170112575</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
         <v>12</v>
       </c>
@@ -1318,8 +1363,8 @@
         <v>1929612429</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
         <v>13</v>
       </c>
@@ -1336,8 +1381,8 @@
         <v>1870603</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
         <v>14</v>
       </c>
@@ -1354,8 +1399,8 @@
         <v>9320198</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>2009</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -1374,8 +1419,8 @@
         <v>-12289870694</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
         <v>7</v>
       </c>
@@ -1392,8 +1437,8 @@
         <v>-14162464249</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
@@ -1410,8 +1455,8 @@
         <v>35404839</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1"/>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
         <v>9</v>
       </c>
@@ -1428,8 +1473,8 @@
         <v>-696647653</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1"/>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
@@ -1446,8 +1491,8 @@
         <v>21576461</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1"/>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
       <c r="B61" s="1" t="s">
         <v>11</v>
       </c>
@@ -1464,8 +1509,8 @@
         <v>161579441</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
         <v>12</v>
       </c>
@@ -1482,8 +1527,8 @@
         <v>1442586354</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
         <v>13</v>
       </c>
@@ -1500,8 +1545,8 @@
         <v>2193646</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1"/>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
         <v>14</v>
       </c>
@@ -1518,8 +1563,8 @@
         <v>23237475</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
         <v>2010</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -1538,8 +1583,8 @@
         <v>-20811176878</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1"/>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
@@ -1556,8 +1601,8 @@
         <v>-13638795485</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1"/>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
         <v>8</v>
       </c>
@@ -1574,8 +1619,8 @@
         <v>34323033</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1"/>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
         <v>9</v>
       </c>
@@ -1592,8 +1637,8 @@
         <v>-142415784</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1"/>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
         <v>10</v>
       </c>
@@ -1610,8 +1655,8 @@
         <v>5570830</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1"/>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
         <v>11</v>
       </c>
@@ -1628,8 +1673,8 @@
         <v>295313507</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1"/>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
         <v>12</v>
       </c>
@@ -1646,8 +1691,8 @@
         <v>1758891674</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1"/>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
         <v>13</v>
       </c>
@@ -1664,8 +1709,8 @@
         <v>2043892</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
         <v>14</v>
       </c>
@@ -1682,8 +1727,8 @@
         <v>42581521</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
         <v>2011</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -1702,8 +1747,8 @@
         <v>-22138027126</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1"/>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
         <v>7</v>
       </c>
@@ -1720,8 +1765,8 @@
         <v>-20550072955</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1"/>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
         <v>8</v>
       </c>
@@ -1738,8 +1783,8 @@
         <v>49739623</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1"/>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
         <v>9</v>
       </c>
@@ -1756,8 +1801,8 @@
         <v>-1406630326</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1"/>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
       <c r="B78" s="1" t="s">
         <v>10</v>
       </c>
@@ -1774,8 +1819,8 @@
         <v>10738246</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1"/>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
       <c r="B79" s="1" t="s">
         <v>11</v>
       </c>
@@ -1792,8 +1837,8 @@
         <v>443005827</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1"/>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
         <v>12</v>
       </c>
@@ -1810,8 +1855,8 @@
         <v>1639369807</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1"/>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
         <v>13</v>
       </c>
@@ -1828,8 +1873,8 @@
         <v>1790531</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1"/>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
       <c r="B82" s="1" t="s">
         <v>14</v>
       </c>
@@ -1846,8 +1891,8 @@
         <v>68689971</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
         <v>2012</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -1866,8 +1911,8 @@
         <v>-29522725647</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1"/>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
       <c r="B84" s="1" t="s">
         <v>7</v>
       </c>
@@ -1884,8 +1929,8 @@
         <v>-18867493429</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1"/>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
         <v>8</v>
       </c>
@@ -1902,8 +1947,8 @@
         <v>57489358</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="1"/>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
       <c r="B86" s="1" t="s">
         <v>9</v>
       </c>
@@ -1920,8 +1965,8 @@
         <v>-1461369179</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1"/>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
       <c r="B87" s="1" t="s">
         <v>10</v>
       </c>
@@ -1938,8 +1983,8 @@
         <v>9261189</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1"/>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
         <v>11</v>
       </c>
@@ -1956,8 +2001,8 @@
         <v>537566555</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1"/>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
         <v>12</v>
       </c>
@@ -1974,8 +2019,8 @@
         <v>986575553</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1"/>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
         <v>13</v>
       </c>
@@ -1992,8 +2037,8 @@
         <v>2964586</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1"/>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
         <v>14</v>
       </c>
@@ -2010,8 +2055,8 @@
         <v>61785364</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="1">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
         <v>2013</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -2030,8 +2075,8 @@
         <v>-28008610414</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1"/>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="2"/>
       <c r="B93" s="1" t="s">
         <v>7</v>
       </c>
@@ -2048,8 +2093,8 @@
         <v>-18403651409</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1"/>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="2"/>
       <c r="B94" s="1" t="s">
         <v>8</v>
       </c>
@@ -2066,8 +2111,8 @@
         <v>61995934</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="1"/>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="2"/>
       <c r="B95" s="1" t="s">
         <v>9</v>
       </c>
@@ -2084,8 +2129,8 @@
         <v>-2112400709</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1"/>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
       <c r="B96" s="1" t="s">
         <v>10</v>
       </c>
@@ -2102,8 +2147,8 @@
         <v>-4938168</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
         <v>11</v>
       </c>
@@ -2120,8 +2165,8 @@
         <v>744418497</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1"/>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="2"/>
       <c r="B98" s="1" t="s">
         <v>12</v>
       </c>
@@ -2138,8 +2183,8 @@
         <v>1107402918</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1"/>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="2"/>
       <c r="B99" s="1" t="s">
         <v>13</v>
       </c>
@@ -2156,8 +2201,8 @@
         <v>4859565</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1"/>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
         <v>14</v>
       </c>
@@ -2174,8 +2219,8 @@
         <v>46989330</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
         <v>2014</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -2194,8 +2239,8 @@
         <v>-25131018227</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="1"/>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="2"/>
       <c r="B102" s="1" t="s">
         <v>7</v>
       </c>
@@ -2212,8 +2257,8 @@
         <v>-16763090404</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="1"/>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="2"/>
       <c r="B103" s="1" t="s">
         <v>8</v>
       </c>
@@ -2230,8 +2275,8 @@
         <v>51220417</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="1"/>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>9</v>
       </c>
@@ -2248,8 +2293,8 @@
         <v>-2864674920</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="1"/>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="2"/>
       <c r="B105" s="1" t="s">
         <v>10</v>
       </c>
@@ -2266,8 +2311,8 @@
         <v>-32803053</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1"/>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="2"/>
       <c r="B106" s="1" t="s">
         <v>11</v>
       </c>
@@ -2284,8 +2329,8 @@
         <v>318917431</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1"/>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
         <v>12</v>
       </c>
@@ -2302,8 +2347,8 @@
         <v>1473781736</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1"/>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="2"/>
       <c r="B108" s="1" t="s">
         <v>13</v>
       </c>
@@ -2320,8 +2365,8 @@
         <v>5727243</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1"/>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="2"/>
       <c r="B109" s="1" t="s">
         <v>14</v>
       </c>
@@ -2338,8 +2383,8 @@
         <v>60241799</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
         <v>2015</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -2358,8 +2403,8 @@
         <v>-12284465500</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1"/>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
         <v>7</v>
       </c>
@@ -2376,8 +2421,8 @@
         <v>-16677132636</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="1"/>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
         <v>8</v>
       </c>
@@ -2394,8 +2439,8 @@
         <v>43277589</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="1"/>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="2"/>
       <c r="B113" s="1" t="s">
         <v>9</v>
       </c>
@@ -2412,8 +2457,8 @@
         <v>-905106545</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="1"/>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="2"/>
       <c r="B114" s="1" t="s">
         <v>10</v>
       </c>
@@ -2430,8 +2475,8 @@
         <v>-329751</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1"/>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="2"/>
       <c r="B115" s="1" t="s">
         <v>11</v>
       </c>
@@ -2448,8 +2493,8 @@
         <v>1485407308</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1"/>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="2"/>
       <c r="B116" s="1" t="s">
         <v>12</v>
       </c>
@@ -2466,8 +2511,8 @@
         <v>1433380120</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1"/>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="2"/>
       <c r="B117" s="1" t="s">
         <v>13</v>
       </c>
@@ -2484,8 +2529,8 @@
         <v>5923532</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1"/>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="2"/>
       <c r="B118" s="1" t="s">
         <v>14</v>
       </c>
@@ -2502,8 +2547,8 @@
         <v>103804787</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
         <v>2016</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -2522,8 +2567,8 @@
         <v>-12285718456</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="1"/>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="2"/>
       <c r="B120" s="1" t="s">
         <v>7</v>
       </c>
@@ -2540,8 +2585,8 @@
         <v>-23878894481</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1"/>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
         <v>8</v>
       </c>
@@ -2558,8 +2603,8 @@
         <v>48588157</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1"/>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="2"/>
       <c r="B122" s="1" t="s">
         <v>9</v>
       </c>
@@ -2576,8 +2621,8 @@
         <v>-483597675</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="1"/>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="2"/>
       <c r="B123" s="1" t="s">
         <v>10</v>
       </c>
@@ -2594,8 +2639,8 @@
         <v>21075233</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="1"/>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="2"/>
       <c r="B124" s="1" t="s">
         <v>11</v>
       </c>
@@ -2612,8 +2657,8 @@
         <v>829200926</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1"/>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="2"/>
       <c r="B125" s="1" t="s">
         <v>12</v>
       </c>
@@ -2630,8 +2675,8 @@
         <v>2419301438</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1"/>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="2"/>
       <c r="B126" s="1" t="s">
         <v>13</v>
       </c>
@@ -2648,8 +2693,8 @@
         <v>6386769</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1"/>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="2"/>
       <c r="B127" s="1" t="s">
         <v>14</v>
       </c>
@@ -2666,8 +2711,8 @@
         <v>163981194</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
         <v>2017</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -2686,8 +2731,8 @@
         <v>-18441256242</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1"/>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="2"/>
       <c r="B129" s="1" t="s">
         <v>7</v>
       </c>
@@ -2704,8 +2749,8 @@
         <v>-29906617038</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1"/>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="2"/>
       <c r="B130" s="1" t="s">
         <v>8</v>
       </c>
@@ -2722,8 +2767,8 @@
         <v>69231860</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1"/>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="2"/>
       <c r="B131" s="1" t="s">
         <v>9</v>
       </c>
@@ -2740,8 +2785,8 @@
         <v>-1317617070</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1"/>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="2"/>
       <c r="B132" s="1" t="s">
         <v>10</v>
       </c>
@@ -2758,8 +2803,8 @@
         <v>33321971</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1"/>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="2"/>
       <c r="B133" s="1" t="s">
         <v>11</v>
       </c>
@@ -2776,8 +2821,8 @@
         <v>778030916</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1"/>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="2"/>
       <c r="B134" s="1" t="s">
         <v>12</v>
       </c>
@@ -2794,8 +2839,8 @@
         <v>1306036420</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1"/>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="2"/>
       <c r="B135" s="1" t="s">
         <v>13</v>
       </c>
@@ -2812,8 +2857,8 @@
         <v>6901148</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1"/>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="2"/>
       <c r="B136" s="1" t="s">
         <v>14</v>
       </c>
@@ -2830,8 +2875,8 @@
         <v>131023454</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="1">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
         <v>2018</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -2850,8 +2895,8 @@
         <v>-23573373248</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1"/>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="2"/>
       <c r="B138" s="1" t="s">
         <v>7</v>
       </c>
@@ -2868,8 +2913,8 @@
         <v>-43904360798</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1"/>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="2"/>
       <c r="B139" s="1" t="s">
         <v>8</v>
       </c>
@@ -2886,8 +2931,8 @@
         <v>77975354</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="1"/>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="2"/>
       <c r="B140" s="1" t="s">
         <v>9</v>
       </c>
@@ -2904,8 +2949,8 @@
         <v>-1994225695</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="1"/>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="2"/>
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
@@ -2922,8 +2967,8 @@
         <v>22193023</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="1"/>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="2"/>
       <c r="B142" s="1" t="s">
         <v>11</v>
       </c>
@@ -2940,8 +2985,8 @@
         <v>1228247462</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1"/>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="2"/>
       <c r="B143" s="1" t="s">
         <v>12</v>
       </c>
@@ -2958,8 +3003,8 @@
         <v>1501142558</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="1"/>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="2"/>
       <c r="B144" s="1" t="s">
         <v>13</v>
       </c>
@@ -2976,8 +3021,8 @@
         <v>7205899</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1"/>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="2"/>
       <c r="B145" s="1" t="s">
         <v>14</v>
       </c>
@@ -2994,8 +3039,8 @@
         <v>129375314</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="1">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
         <v>2019</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -3014,8 +3059,8 @@
         <v>-21781674725</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="1"/>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="2"/>
       <c r="B147" s="1" t="s">
         <v>7</v>
       </c>
@@ -3032,8 +3077,8 @@
         <v>-44423483135</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="1"/>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="2"/>
       <c r="B148" s="1" t="s">
         <v>8</v>
       </c>
@@ -3050,8 +3095,8 @@
         <v>64138300</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="1"/>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="2"/>
       <c r="B149" s="1" t="s">
         <v>9</v>
       </c>
@@ -3068,8 +3113,8 @@
         <v>-1609859606</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="1"/>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="2"/>
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
@@ -3086,8 +3131,8 @@
         <v>23536318</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="1"/>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="2"/>
       <c r="B151" s="1" t="s">
         <v>11</v>
       </c>
@@ -3104,8 +3149,8 @@
         <v>1244453438</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="1"/>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="2"/>
       <c r="B152" s="1" t="s">
         <v>12</v>
       </c>
@@ -3122,8 +3167,8 @@
         <v>2044123682</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="1"/>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="2"/>
       <c r="B153" s="1" t="s">
         <v>13</v>
       </c>
@@ -3140,8 +3185,8 @@
         <v>8906839</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="1"/>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="2"/>
       <c r="B154" s="1" t="s">
         <v>14</v>
       </c>
@@ -3158,8 +3203,8 @@
         <v>118384429</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="1">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
         <v>2020</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -3178,8 +3223,8 @@
         <v>-13009638134</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="1"/>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="2"/>
       <c r="B156" s="1" t="s">
         <v>7</v>
       </c>
@@ -3196,8 +3241,8 @@
         <v>-50563981695</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="1"/>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="2"/>
       <c r="B157" s="1" t="s">
         <v>8</v>
       </c>
@@ -3214,8 +3259,8 @@
         <v>76626687</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="1"/>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="2"/>
       <c r="B158" s="1" t="s">
         <v>9</v>
       </c>
@@ -3232,8 +3277,8 @@
         <v>-1060429009</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="1"/>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="2"/>
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -3250,8 +3295,8 @@
         <v>51425255</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="1"/>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="2"/>
       <c r="B160" s="1" t="s">
         <v>11</v>
       </c>
@@ -3268,8 +3313,8 @@
         <v>1420569933</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="1"/>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="2"/>
       <c r="B161" s="1" t="s">
         <v>12</v>
       </c>
@@ -3286,8 +3331,8 @@
         <v>1408076719</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="1"/>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="2"/>
       <c r="B162" s="1" t="s">
         <v>13</v>
       </c>
@@ -3304,8 +3349,8 @@
         <v>20266816</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="1"/>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="2"/>
       <c r="B163" s="1" t="s">
         <v>14</v>
       </c>
@@ -3322,8 +3367,8 @@
         <v>190061782</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="1">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
         <v>2021</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -3342,8 +3387,8 @@
         <v>-18416685636</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="1"/>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="2"/>
       <c r="B165" s="1" t="s">
         <v>7</v>
       </c>
@@ -3360,8 +3405,8 @@
         <v>-56265651888</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="1"/>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="2"/>
       <c r="B166" s="1" t="s">
         <v>8</v>
       </c>
@@ -3378,8 +3423,8 @@
         <v>83390817</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="1"/>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="2"/>
       <c r="B167" s="1" t="s">
         <v>9</v>
       </c>
@@ -3396,8 +3441,8 @@
         <v>-1091158371</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="1"/>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="2"/>
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
@@ -3414,8 +3459,8 @@
         <v>88877803</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="1"/>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="2"/>
       <c r="B169" s="1" t="s">
         <v>11</v>
       </c>
@@ -3432,8 +3477,8 @@
         <v>1754478509</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="1"/>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="2"/>
       <c r="B170" s="1" t="s">
         <v>12</v>
       </c>
@@ -3450,8 +3495,8 @@
         <v>1900447703</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="1"/>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="2"/>
       <c r="B171" s="1" t="s">
         <v>13</v>
       </c>
@@ -3468,8 +3513,8 @@
         <v>14811718</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
-      <c r="A172" s="1"/>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="2"/>
       <c r="B172" s="1" t="s">
         <v>14</v>
       </c>
@@ -3486,8 +3531,8 @@
         <v>147281990</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="1">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
         <v>2022</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -3506,8 +3551,8 @@
         <v>-19149075976</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="1"/>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="2"/>
       <c r="B174" s="1" t="s">
         <v>7</v>
       </c>
@@ -3524,8 +3569,8 @@
         <v>-47552072745</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="1"/>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="2"/>
       <c r="B175" s="1" t="s">
         <v>8</v>
       </c>
@@ -3542,8 +3587,8 @@
         <v>92944146</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
-      <c r="A176" s="1"/>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="2"/>
       <c r="B176" s="1" t="s">
         <v>9</v>
       </c>
@@ -3560,8 +3605,8 @@
         <v>-1285656216</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="1"/>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="2"/>
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
@@ -3578,8 +3623,8 @@
         <v>56513335</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="1"/>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="2"/>
       <c r="B178" s="1" t="s">
         <v>11</v>
       </c>
@@ -3596,8 +3641,8 @@
         <v>1952008337</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="1"/>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="2"/>
       <c r="B179" s="1" t="s">
         <v>12</v>
       </c>
@@ -3614,8 +3659,8 @@
         <v>2942013790</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="1"/>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="2"/>
       <c r="B180" s="1" t="s">
         <v>13</v>
       </c>
@@ -3632,8 +3677,8 @@
         <v>15137730</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
-      <c r="A181" s="1"/>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="2"/>
       <c r="B181" s="1" t="s">
         <v>14</v>
       </c>
@@ -3652,26 +3697,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A137:A145"/>
+    <mergeCell ref="A146:A154"/>
+    <mergeCell ref="A155:A163"/>
+    <mergeCell ref="A164:A172"/>
+    <mergeCell ref="A173:A181"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A110:A118"/>
+    <mergeCell ref="A119:A127"/>
+    <mergeCell ref="A128:A136"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="A83:A91"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A29:A37"/>
     <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A92:A100"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="A110:A118"/>
-    <mergeCell ref="A119:A127"/>
-    <mergeCell ref="A128:A136"/>
-    <mergeCell ref="A137:A145"/>
-    <mergeCell ref="A146:A154"/>
-    <mergeCell ref="A155:A163"/>
-    <mergeCell ref="A164:A172"/>
-    <mergeCell ref="A173:A181"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
